--- a/static/xlxsTemplate/finished_qa_warehousing.xlsx
+++ b/static/xlxsTemplate/finished_qa_warehousing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\git\iot.vue\static\xlxsTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0E25D4-F772-4FF5-9161-939B4F28829C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66364262-4A0D-47E6-AA4B-D6CCE8507087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>纱牌
 Nhãn hiệu sợi</t>
@@ -181,10 +179,6 @@
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
-  </si>
-  <si>
-    <t>重量
-KG/LB</t>
   </si>
   <si>
     <t>${table:output.vatNo}</t>
@@ -441,12 +435,48 @@
     <t>${table:output.length3}</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>总长度</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:output.lengthSum}</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量
+${table:output.unit}</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">重量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>${table:output.unit}</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +613,34 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="3"/>
@@ -784,7 +842,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -844,9 +902,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -867,9 +922,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -894,6 +946,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,37 +967,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,16 +994,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1011,11 +1072,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1309,7 +1370,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1319,7 +1380,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="28.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1342,8 +1403,8 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1358,92 +1419,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="A3" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="G4" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="B5" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
+      <c r="G5" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1456,55 +1517,55 @@
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="17"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="23" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>37</v>
-      </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>30</v>
+      <c r="B9" s="80" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>30</v>
+      <c r="E9" s="79" t="s">
+        <v>64</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>21</v>
@@ -1512,8 +1573,8 @@
       <c r="G9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>30</v>
+      <c r="H9" s="79" t="s">
+        <v>64</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>21</v>
@@ -1521,197 +1582,201 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="E10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="G10" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="H10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="36" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+    </row>
+    <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="76" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="56" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-    </row>
-    <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="56" t="s">
+      <c r="E15" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="56" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" s="57"/>
+      <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>44</v>
+      <c r="B16" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>50</v>
+      <c r="D16" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>51</v>
+      <c r="F16" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="39"/>
+      <c r="H16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="21"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="37" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="29"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="23" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="55" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="49"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="49"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="6"/>
       <c r="I20" s="4"/>
     </row>

--- a/static/xlxsTemplate/finished_qa_warehousing.xlsx
+++ b/static/xlxsTemplate/finished_qa_warehousing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\git\iot.vue\static\xlxsTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66364262-4A0D-47E6-AA4B-D6CCE8507087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F18FDB-60B8-417B-802A-DA17E5F22605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>纱牌
 Nhãn hiệu sợi</t>
@@ -469,6 +469,65 @@
       </rPr>
       <t>${table:output.unit}</t>
     </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">原缸 XX 匹，已拆分 XX 匹到 A1缸，剩余 XX 匹
+Bồn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ầu XX cuộn，Đã phân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơn  XX cuộn cho A1 bồn，còn lại XX cuộn</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>布面纱横，作疵存仓
+Mặt phải sọc ngang , Hàng phế lưu kho</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>布底纱横，作疵存仓
+Mặt trái sọc ngang , Hàng phế lưu kho</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +535,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,6 +704,14 @@
       <name val="Times New Roman"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -842,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -949,13 +1016,70 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -967,6 +1091,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,101 +1145,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,15 +1428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="49.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1387,6 +1457,21 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1403,8 +1488,8 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1419,92 +1504,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="59"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1517,26 +1602,26 @@
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="17"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
@@ -1555,7 +1640,7 @@
       <c r="A9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="39" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1564,7 +1649,7 @@
       <c r="D9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="38" t="s">
         <v>64</v>
       </c>
       <c r="F9" s="9" t="s">
@@ -1573,7 +1658,7 @@
       <c r="G9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="38" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="9" t="s">
@@ -1611,91 +1696,91 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="77" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="77" t="s">
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="47" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="51" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -1719,64 +1804,64 @@
       <c r="G16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="69" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="69" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="69" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="56"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="56"/>
+      <c r="G20" s="70"/>
       <c r="H20" s="6"/>
       <c r="I20" s="4"/>
     </row>
@@ -1827,6 +1912,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B17:H18"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:C14"/>
     <mergeCell ref="A11:A12"/>
@@ -1843,20 +1942,6 @@
     <mergeCell ref="D11:F12"/>
     <mergeCell ref="G11:I12"/>
     <mergeCell ref="H13:I14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/static/xlxsTemplate/finished_qa_warehousing.xlsx
+++ b/static/xlxsTemplate/finished_qa_warehousing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workSpace\git\iot.vue\static\xlxsTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F18FDB-60B8-417B-802A-DA17E5F22605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D97D9D-6A04-4B0E-8118-16A6B72D47BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -472,62 +472,106 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
+    <t>布面纱横，作疵存仓
+Mặt phải sọc ngang , Hàng phế lưu kho</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>布底纱横，作疵存仓
+Mặt trái sọc ngang , Hàng phế lưu kho</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">原缸 XX 匹，已拆分 XX 匹到 A1缸，剩余 XX 匹
-Bồn </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="129"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Bồn </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>đ</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ầu XX cuộn，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">ầu XX cuộn，Đã phân </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
-        <charset val="129"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">ã phân </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>đ</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="22"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ơn  XX cuộn cho A1 bồn，còn lại XX cuộn</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>布面纱横，作疵存仓
-Mặt phải sọc ngang , Hàng phế lưu kho</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>布底纱横，作疵存仓
-Mặt trái sọc ngang , Hàng phế lưu kho</t>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n  XX cuộn cho A1 bồn，còn lại XX cuộn</t>
+    </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +579,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,11 +750,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="129"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -909,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1022,22 +1074,73 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1082,15 +1185,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,49 +1197,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1430,13 +1485,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.21875" customWidth="1"/>
+    <col min="1" max="1" width="107" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1459,25 +1514,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+    <row r="9" spans="1:1" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="81" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+    <row r="11" spans="1:1" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1488,7 +1543,7 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1504,92 +1559,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="59"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="12" t="s">
         <v>3</v>
       </c>
@@ -1602,26 +1657,26 @@
       <c r="A7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="17"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="78"/>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
@@ -1696,91 +1751,91 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="65" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="65" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="79" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="40" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="43"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="43"/>
+      <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
@@ -1804,64 +1859,64 @@
       <c r="G16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="75"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
       <c r="I17" s="37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="57" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="57" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="70"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="70"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="6"/>
       <c r="I20" s="4"/>
     </row>
@@ -1912,20 +1967,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B17:H18"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:C14"/>
     <mergeCell ref="A11:A12"/>
@@ -1942,6 +1983,20 @@
     <mergeCell ref="D11:F12"/>
     <mergeCell ref="G11:I12"/>
     <mergeCell ref="H13:I14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
